--- a/biology/Zoologie/Dorocordulia/Dorocordulia.xlsx
+++ b/biology/Zoologie/Dorocordulia/Dorocordulia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorocordulia est un genre de libellules de la famille des Corduliidae (sous-ordre des Anisoptères, ordre des Odonates)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorocordulia est un genre de libellules de la famille des Corduliidae (sous-ordre des Anisoptères, ordre des Odonates).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces du genre Dorocordulia possèdent un corps brun foncé, un thorax poilu et un abdomen foncé avec des reflets verts métalliques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces du genre Dorocordulia possèdent un corps brun foncé, un thorax poilu et un abdomen foncé avec des reflets verts métalliques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er novembre 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er novembre 2023) :
 Dorocordulia lepida (Hagen, 1871)
 Dorocordulia libera (Selys, 1871) - espèce type</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dorocordulia Needham, 1901[3],[4]. L'espèce type de ce genre est Dorocordulia libera[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dorocordulia Needham, 1901,. L'espèce type de ce genre est Dorocordulia libera.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) James G. Needham et Cornelius Betten, « Aquatic insects in the Adirondacks », Bulletin / New York State Museum, Auckland, vol. 9, no 47,‎ septembre 1901, p. 383-612 (ISSN 1066-8039, OCLC 1476644, lire en ligne)</t>
         </is>
